--- a/Performance-Evaluation/Results.xlsx
+++ b/Performance-Evaluation/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F2CF08DF-120C-4E95-9AC1-90F436AC362C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3CE9538-3953-40D2-AE57-8A5E4E4A460B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -226,6 +223,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,36 +525,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -566,18 +566,22 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="B5" s="4">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5">
         <v>88</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>267</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="E5" s="4">
+        <v>653</v>
+      </c>
+      <c r="F5" s="5">
         <v>135</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1693</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -588,44 +592,48 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="B6" s="4">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
         <v>49</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="E6" s="4">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5">
         <v>43</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>60</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="I9" t="s">
         <v>9</v>
       </c>
@@ -634,18 +642,22 @@
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="C10" s="5">
         <v>136</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>21</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6">
+      <c r="E10" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="F10" s="5">
         <v>148</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>28</v>
       </c>
       <c r="I10" t="s">
@@ -656,38 +668,42 @@
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="B11" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="C11" s="5">
         <v>134</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>20</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
+      <c r="E11" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="F11" s="5">
         <v>135</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="I14" t="s">
         <v>11</v>
       </c>
@@ -696,21 +712,27 @@
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
+      <c r="B15" s="4">
+        <f>B10*300/B5</f>
+        <v>71.808510638297875</v>
+      </c>
+      <c r="C15" s="5">
         <f>C10*300/C5</f>
         <v>463.63636363636363</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>D10*300/D5</f>
         <v>23.59550561797753</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6">
+      <c r="E15" s="4">
+        <f>E10*300/E5</f>
+        <v>13.552833078101072</v>
+      </c>
+      <c r="F15" s="5">
         <f>F10*300/F5</f>
         <v>328.88888888888891</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f>G10*300/G5</f>
         <v>4.9616066154754872</v>
       </c>
@@ -719,42 +741,48 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
+        <f>B11*300/B6</f>
+        <v>126.47058823529412</v>
+      </c>
+      <c r="C16" s="5">
         <f>C11*300/C6</f>
         <v>820.40816326530614</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>D11*300/D6</f>
         <v>120</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6">
+      <c r="E16" s="4">
+        <f>E11*300/E6</f>
+        <v>135.57692307692307</v>
+      </c>
+      <c r="F16" s="5">
         <f>F11*300/F6</f>
         <v>941.8604651162791</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>G11*300/G6</f>
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="I19" t="s">
         <v>15</v>
       </c>
@@ -763,19 +791,23 @@
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
+      <c r="B20" s="4">
+        <v>892</v>
+      </c>
+      <c r="C20" s="5">
         <v>7214</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>142</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6">
+      <c r="E20" s="4">
+        <v>1857</v>
+      </c>
+      <c r="F20" s="5">
         <v>1482</v>
       </c>
-      <c r="G20" s="7">
-        <v>148</v>
+      <c r="G20" s="6">
+        <v>1126</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -785,38 +817,42 @@
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
+      <c r="B21" s="4">
+        <v>412</v>
+      </c>
+      <c r="C21" s="5">
         <v>3241</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>146</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6">
+      <c r="E21" s="4">
+        <v>483</v>
+      </c>
+      <c r="F21" s="5">
         <v>2165</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="I24" t="s">
         <v>15</v>
       </c>
@@ -825,19 +861,23 @@
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
+      <c r="B25" s="4">
+        <v>3949</v>
+      </c>
+      <c r="C25" s="5">
         <v>45968</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>524</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6">
+      <c r="E25" s="4">
+        <v>2858</v>
+      </c>
+      <c r="F25" s="5">
         <v>730</v>
       </c>
-      <c r="G25" s="7">
-        <v>521</v>
+      <c r="G25" s="6">
+        <v>3219</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -847,38 +887,42 @@
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
+      <c r="B26" s="4">
+        <v>504</v>
+      </c>
+      <c r="C26" s="5">
         <v>29824</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>513</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6">
+      <c r="E26" s="4">
+        <v>519</v>
+      </c>
+      <c r="F26" s="5">
         <v>1133</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="I29" t="s">
         <v>17</v>
       </c>
@@ -887,23 +931,29 @@
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6">
+      <c r="B30" s="4">
+        <f>(B25+B20)/B5</f>
+        <v>51.5</v>
+      </c>
+      <c r="C30" s="5">
         <f>(C20+C25)/C5</f>
         <v>604.34090909090912</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f>(D25+D20)/D5</f>
         <v>2.49438202247191</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6">
+      <c r="E30" s="4">
+        <f>(E25+E20)/E5</f>
+        <v>7.2205206738131702</v>
+      </c>
+      <c r="F30" s="5">
         <f>(F25+F20)/F5</f>
         <v>16.385185185185186</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f>(G25+G20)/G5</f>
-        <v>0.39515652687536917</v>
+        <v>2.566450088600118</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -913,42 +963,48 @@
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6">
+      <c r="B31" s="4">
+        <f>(B26+B21)/B6</f>
+        <v>17.96078431372549</v>
+      </c>
+      <c r="C31" s="5">
         <f>(C21+C26)/C6</f>
         <v>674.79591836734699</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f>(D26+D21)/D6</f>
         <v>13.18</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6">
+      <c r="E31" s="4">
+        <f>(E26+E21)/E6</f>
+        <v>19.26923076923077</v>
+      </c>
+      <c r="F31" s="5">
         <f>(F26+F21)/F6</f>
         <v>76.697674418604649</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f>(G26+G21)/G6</f>
         <v>10.783333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="I34" t="s">
         <v>20</v>
       </c>
@@ -957,18 +1013,22 @@
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6">
+      <c r="B35" s="4">
+        <v>3.178858</v>
+      </c>
+      <c r="C35" s="5">
         <v>3.486904</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>1.1662809999999999</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6">
+      <c r="E35" s="4">
+        <v>0.460067</v>
+      </c>
+      <c r="F35" s="5">
         <v>2.2401260000000001</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>0.17726</v>
       </c>
     </row>
@@ -976,38 +1036,42 @@
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
+      <c r="B36" s="4">
+        <v>3.0436519999999998</v>
+      </c>
+      <c r="C36" s="5">
         <v>3.2103549999999998</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>1.188388</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6">
+      <c r="E36" s="4">
+        <v>0.58389100000000005</v>
+      </c>
+      <c r="F36" s="5">
         <v>2.368366</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>0.15892200000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="I39" t="s">
         <v>15</v>
       </c>
@@ -1016,18 +1080,22 @@
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6">
+      <c r="B40" s="4">
+        <v>9.08</v>
+      </c>
+      <c r="C40" s="5">
         <v>28.12</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>28.32</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6">
+      <c r="E40" s="4">
+        <v>10.55</v>
+      </c>
+      <c r="F40" s="5">
         <v>27.18</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>28.5</v>
       </c>
       <c r="I40" t="s">
@@ -1038,38 +1106,42 @@
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6">
+      <c r="B41" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C41" s="5">
         <v>28.43</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>13.67</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6">
+      <c r="E41" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F41" s="5">
         <v>18.670000000000002</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>22.96</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="I44" t="s">
         <v>15</v>
       </c>
@@ -1078,18 +1150,22 @@
       <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6">
+      <c r="B45" s="4">
+        <v>49.03</v>
+      </c>
+      <c r="C45" s="5">
         <v>65.159000000000006</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>46.26</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6">
+      <c r="E45" s="4">
+        <v>48.218000000000004</v>
+      </c>
+      <c r="F45" s="5">
         <v>60.16</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>53.258000000000003</v>
       </c>
       <c r="I45" t="s">
@@ -1100,38 +1176,42 @@
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6">
+      <c r="B46" s="4">
+        <v>49.174999999999997</v>
+      </c>
+      <c r="C46" s="5">
         <v>66.016999999999996</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>48.19</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6">
+      <c r="E46" s="4">
+        <v>47.509</v>
+      </c>
+      <c r="F46" s="5">
         <v>59.86</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>46.64</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="I49" t="s">
         <v>15</v>
       </c>
@@ -1140,18 +1220,22 @@
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6">
+      <c r="B50" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="C50" s="5">
         <v>2.02</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>2.52</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6">
+      <c r="E50" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="F50" s="5">
         <v>2.08</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>2.15</v>
       </c>
       <c r="I50" t="s">
@@ -1162,23 +1246,31 @@
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6">
+      <c r="B51" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="C51" s="5">
         <v>1.98</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>1.98</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6">
+      <c r="E51" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="F51" s="5">
         <v>2.04</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>1.98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="B4:D4"/>
@@ -1195,10 +1287,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Performance-Evaluation/Results.xlsx
+++ b/Performance-Evaluation/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE8EA132-78A1-4909-B419-EE32FF2EB710}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78880D7A-6725-4EF6-843F-0A2A869FAFAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22722,8 +22722,8 @@
       <xdr:rowOff>100614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>373601</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523042</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>69542</xdr:rowOff>
     </xdr:to>
@@ -23162,8 +23162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="103" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="103" workbookViewId="0">
+      <selection activeCell="AD115" sqref="AD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23918,6 +23918,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E29:G29"/>
@@ -23932,12 +23938,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Performance-Evaluation/Results.xlsx
+++ b/Performance-Evaluation/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78880D7A-6725-4EF6-843F-0A2A869FAFAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C509E384-4C7C-4538-8827-F2A0670C45DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,12 +220,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -23162,8 +23162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="103" workbookViewId="0">
-      <selection activeCell="AD115" sqref="AD115"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="103" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23176,12 +23176,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -23196,16 +23196,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -23235,7 +23235,7 @@
       <c r="G5" s="5">
         <v>1693</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23261,12 +23261,12 @@
       <c r="G6" s="5">
         <v>60</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -23275,16 +23275,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="I9" t="s">
         <v>9</v>
       </c>
@@ -23345,16 +23345,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="I14" t="s">
         <v>11</v>
       </c>
@@ -23424,16 +23424,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="I19" t="s">
         <v>15</v>
       </c>
@@ -23494,16 +23494,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="I24" t="s">
         <v>15</v>
       </c>
@@ -23564,16 +23564,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="I29" t="s">
         <v>17</v>
       </c>
@@ -23646,16 +23646,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="I34" t="s">
         <v>20</v>
       </c>
@@ -23713,16 +23713,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="I39" t="s">
         <v>15</v>
       </c>
@@ -23783,16 +23783,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="I44" t="s">
         <v>15</v>
       </c>
@@ -23853,16 +23853,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="I49" t="s">
         <v>15</v>
       </c>
@@ -23918,12 +23918,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E29:G29"/>
@@ -23938,6 +23932,12 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Performance-Evaluation/Results.xlsx
+++ b/Performance-Evaluation/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE3D9DCA-C290-4968-B091-54F4D05991C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6A6D97D-E333-4A78-A033-CD497D8C8524}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14367,13 +14367,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Master</a:t>
+              <a:t>CPU Usage %</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> CPU Usage % (With Blockchain)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -14514,7 +14509,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1A5-4A04-A2C1-BBF73B8BF0D1}"/>
+              <c16:uniqueId val="{00000000-2252-401A-B1AB-4E7096DA1E8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14619,7 +14614,219 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F1A5-4A04-A2C1-BBF73B8BF0D1}"/>
+              <c16:uniqueId val="{00000001-2252-401A-B1AB-4E7096DA1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Max Load</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2 instr/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$40:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7799999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2252-401A-B1AB-4E7096DA1E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$40:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Max Load</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2 instr/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$40:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2252-401A-B1AB-4E7096DA1E8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14633,11 +14840,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="490717472"/>
-        <c:axId val="490712224"/>
+        <c:axId val="296439760"/>
+        <c:axId val="296437136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="490717472"/>
+        <c:axId val="296439760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14680,7 +14887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490712224"/>
+        <c:crossAx val="296437136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14688,7 +14895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490712224"/>
+        <c:axId val="296437136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14698,7 +14905,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490717472"/>
+        <c:crossAx val="296439760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14820,460 +15027,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Master</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> CPU Usage % (Without Blockchain)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$40:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Max Load</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2 instr/sec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$40:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7799999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4EE2-4F32-8608-1DAB920A11CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$40:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Max Load</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2 instr/sec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$40:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>27.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.670000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4EE2-4F32-8608-1DAB920A11CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="-25"/>
-        <c:axId val="499200232"/>
-        <c:axId val="499196624"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="499200232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499196624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="499196624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499200232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Master RAM Usage % (With Blockchain)</a:t>
+              <a:t>RAM Usage %</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15415,7 +15169,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC6F-4709-B85C-27C86C65A351}"/>
+              <c16:uniqueId val="{00000000-E769-4DEE-9E48-8565C40CD3C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15520,259 +15274,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC6F-4709-B85C-27C86C65A351}"/>
+              <c16:uniqueId val="{00000001-E769-4DEE-9E48-8565C40CD3C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="-25"/>
-        <c:axId val="493055856"/>
-        <c:axId val="493056840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="493055856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="493056840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="493056840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493055856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Master RAM Usage % (Without Blockchain)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15868,16 +15379,18 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFE1-4E6C-B44D-F686C56E96DA}"/>
+              <c16:uniqueId val="{00000002-E769-4DEE-9E48-8565C40CD3C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15973,7 +15486,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFE1-4E6C-B44D-F686C56E96DA}"/>
+              <c16:uniqueId val="{00000003-E769-4DEE-9E48-8565C40CD3C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15987,11 +15500,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="491202976"/>
-        <c:axId val="491204288"/>
+        <c:axId val="371615232"/>
+        <c:axId val="371620480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="491202976"/>
+        <c:axId val="371615232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16034,7 +15547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491204288"/>
+        <c:crossAx val="371620480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16042,7 +15555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491204288"/>
+        <c:axId val="371620480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16052,7 +15565,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491202976"/>
+        <c:crossAx val="371615232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16139,7 +15652,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16173,14 +15686,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Master Cache Usage (With Blockchain)</a:t>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cache Usage (E08 bytes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -16321,7 +15829,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F3D-4BF2-8EE7-FFF6341A376C}"/>
+              <c16:uniqueId val="{00000000-9584-4231-A746-4A85EEFB7C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16426,7 +15934,219 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2F3D-4BF2-8EE7-FFF6341A376C}"/>
+              <c16:uniqueId val="{00000001-9584-4231-A746-4A85EEFB7C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Max Load</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2 instr/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$50:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9584-4231-A746-4A85EEFB7C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Max Load</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2 instr/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$50:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9584-4231-A746-4A85EEFB7C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16440,11 +16160,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="491205272"/>
-        <c:axId val="491205928"/>
+        <c:axId val="371638848"/>
+        <c:axId val="371636552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="491205272"/>
+        <c:axId val="371638848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16487,7 +16207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491205928"/>
+        <c:crossAx val="371636552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16495,7 +16215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491205928"/>
+        <c:axId val="371636552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16505,7 +16225,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491205272"/>
+        <c:crossAx val="371638848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17145,459 +16865,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Master Cache Usage (Without Blockchain)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$50:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Max Load</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2 instr/sec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$50:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C8F-478E-9622-0DB274F54684}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$50:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Max Load</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2 instr/sec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$50:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C8F-478E-9622-0DB274F54684}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="-25"/>
-        <c:axId val="486705664"/>
-        <c:axId val="486709928"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="486705664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="486709928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="486709928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486705664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -21532,118 +20799,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors38.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors39.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors40.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -37458,1516 +36614,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style38.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style39.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style40.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -43214,22 +40861,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>70282</xdr:colOff>
+      <xdr:colOff>99874</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>63624</xdr:rowOff>
+      <xdr:rowOff>145001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>375082</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246356</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>32552</xdr:rowOff>
+      <xdr:rowOff>113929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="39" name="Chart 38">
+        <xdr:cNvPr id="32" name="Chart 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EF954A-AAD2-4651-AF07-431932984B3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FECBE0-A7D4-4226-81AA-13D38D1427DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43249,23 +40896,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484573</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277428</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>71022</xdr:rowOff>
+      <xdr:rowOff>145002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>574829</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594064</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>39950</xdr:rowOff>
+      <xdr:rowOff>113930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="40" name="Chart 39">
+        <xdr:cNvPr id="41" name="Chart 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAC97EE-467D-43DD-915E-0DE9E8BDA281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8AC426-2A8C-474A-87F2-C1EE7892AA90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43285,23 +40932,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>55486</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>181991</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>625137</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>145003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>360286</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>150920</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557075</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>113931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="42" name="Chart 41">
+        <xdr:cNvPr id="46" name="Chart 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1274C027-D79F-4DB9-8DD4-DE2F056AB6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9D019D-1FF7-416D-BA0E-0C3FD0C09B0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -43314,114 +40961,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484573</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>19235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>574829</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>173115</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="43" name="Chart 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73C0661-AF97-4E3C-ADD7-5F474BDC72DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>55485</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>108013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>360285</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>76941</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="44" name="Chart 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2187ACF6-DB80-4995-92C7-90F0294FA070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484573</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>108010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>574829</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>76938</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="45" name="Chart 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDA9622-939E-47F7-A1F9-8B9652462243}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43695,8 +41234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="103" workbookViewId="0">
-      <selection activeCell="N191" sqref="N191"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="103" workbookViewId="0">
+      <selection activeCell="O180" sqref="O180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44451,12 +41990,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E29:G29"/>
@@ -44471,6 +42004,12 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Performance-Evaluation/Results.xlsx
+++ b/Performance-Evaluation/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6A6D97D-E333-4A78-A033-CD497D8C8524}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91D8B443-A217-4E2D-A3FC-DEEF4621748B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14421,63 +14421,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$40:$A$41</c:f>
@@ -14526,63 +14469,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$40:$A$41</c:f>
@@ -14631,63 +14517,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$40:$A$41</c:f>
@@ -14738,63 +14567,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$40:$A$41</c:f>
@@ -14832,13 +14604,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
         <c:axId val="296439760"/>
         <c:axId val="296437136"/>
@@ -14899,12 +14671,53 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="296439760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -14918,7 +14731,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15081,63 +14894,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$45:$A$46</c:f>
@@ -15186,63 +14942,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$45:$A$46</c:f>
@@ -15291,63 +14990,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$45:$A$46</c:f>
@@ -15398,63 +15040,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$45:$A$46</c:f>
@@ -15492,13 +15077,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
         <c:axId val="371615232"/>
         <c:axId val="371620480"/>
@@ -15559,12 +15144,53 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="371615232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -15578,7 +15204,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15741,63 +15367,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$50:$A$51</c:f>
@@ -15846,63 +15415,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$50:$A$51</c:f>
@@ -15951,63 +15463,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$50:$A$51</c:f>
@@ -16058,63 +15513,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$50:$A$51</c:f>
@@ -16152,13 +15550,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
         <c:axId val="371638848"/>
         <c:axId val="371636552"/>
@@ -16219,12 +15617,53 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="371638848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -16238,7 +15677,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -40868,8 +40307,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>246356</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>113929</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>93214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40904,8 +40343,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>594064</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>113930</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>93215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40940,8 +40379,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>557075</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>113931</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>93216</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41235,7 +40674,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScale="103" workbookViewId="0">
-      <selection activeCell="O180" sqref="O180"/>
+      <selection activeCell="P188" sqref="P188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41990,6 +41429,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E29:G29"/>
@@ -42004,12 +41449,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
